--- a/pred_ohlcv/54_21/2019-10-30 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 ORBS ohlcv.xlsx
@@ -1406,7 +1406,7 @@
         <v>1029423.110565079</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>784771.7533650792</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>784771.7533650792</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1118093.413465079</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1053134.851265079</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1053134.851265079</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1053134.851265079</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1053144.851265079</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1169591.291765079</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1165998.232265079</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1165998.232265079</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1165998.232265079</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1847362.770065079</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2111695.628265079</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>2088605.628265079</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2158863.253065079</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2069547.679065079</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2069547.679065079</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2110456.608320118</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2508960.715820118</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2460122.360398744</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2410117.248998744</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>2410133.325898744</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>2385063.102898744</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>2385063.102898744</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>2385063.102898744</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>2147713.418998744</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1878655.418998744</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1924503.635398744</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1924503.635398744</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1874503.635398744</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2138703.802698744</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 ORBS ohlcv.xlsx
@@ -1406,7 +1406,7 @@
         <v>1029423.110565079</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1007804.155165079</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1007804.155165079</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>854458.1682650791</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>784771.7533650792</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>784771.7533650792</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>784771.7533650792</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1117181.413465079</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1117181.413465079</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1118093.413465079</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1048548.777865079</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1169591.291765079</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1165998.232265079</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1165998.232265079</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1165998.232265079</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1847362.770065079</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2111695.628265079</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>2088605.628265079</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2158863.253065079</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2069547.679065079</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2069547.679065079</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2110456.608320118</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2531863.660820118</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2508960.715820118</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2501988.859720118</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>2502010.195520118</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2491510.195520118</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2457244.630920118</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2460122.360398744</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2410117.248998744</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>2410133.325898744</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>2385063.102898744</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>2385063.102898744</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2385073.102898744</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>2147713.418998744</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1878655.418998744</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1924503.635398744</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1924503.635398744</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1874503.635398744</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2138703.802698744</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
